--- a/SearchProperty/testdata/SearchPropertyTest.xlsx
+++ b/SearchProperty/testdata/SearchPropertyTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10650" windowHeight="4245"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10650" windowHeight="4245" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="35">
   <si>
     <t>SearchLocation</t>
   </si>
@@ -42,9 +42,6 @@
     <t>PropertyType</t>
   </si>
   <si>
-    <t>ExpResults</t>
-  </si>
-  <si>
     <t>SearchRadius</t>
   </si>
   <si>
@@ -90,13 +87,40 @@
     <t>3</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>90,000</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>80,000</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>ExpSearchResults</t>
+  </si>
+  <si>
+    <t>ExpHomeSearchResults</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ToRent</t>
+  </si>
+  <si>
+    <t>100,000</t>
+  </si>
+  <si>
+    <t>1,000 PCM</t>
+  </si>
+  <si>
+    <t>1,100 PCM</t>
   </si>
 </sst>
 </file>
@@ -153,12 +177,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,82 +486,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -558,57 +790,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -618,12 +850,462 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SearchProperty/testdata/SearchPropertyTest.xlsx
+++ b/SearchProperty/testdata/SearchPropertyTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10650" windowHeight="4245" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10650" windowHeight="4245"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="38">
   <si>
     <t>SearchLocation</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>1,100 PCM</t>
+  </si>
+  <si>
+    <t>SortBy</t>
+  </si>
+  <si>
+    <t>Newest Listed</t>
+  </si>
+  <si>
+    <t>Lowest Price</t>
   </si>
 </sst>
 </file>
@@ -486,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -497,17 +506,17 @@
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -539,10 +548,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -570,10 +582,13 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -595,10 +610,13 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>36</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -626,10 +644,13 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -651,10 +672,13 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -682,10 +706,13 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>37</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -707,10 +734,13 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>37</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -738,10 +768,13 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -767,8 +800,189 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -850,35 +1064,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>8</v>
@@ -902,18 +1117,21 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -933,16 +1151,17 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -962,16 +1181,17 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -991,16 +1211,17 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -1020,16 +1241,17 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -1047,16 +1269,17 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -1076,16 +1299,17 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -1105,18 +1329,21 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>36</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -1130,18 +1357,21 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>36</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -1161,18 +1391,21 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -1186,18 +1419,21 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -1217,18 +1453,21 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>37</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -1242,18 +1481,21 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>37</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -1273,18 +1515,21 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -1302,6 +1547,9 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/SearchProperty/testdata/SearchPropertyTest.xlsx
+++ b/SearchProperty/testdata/SearchPropertyTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="39">
   <si>
     <t>SearchLocation</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Lowest Price</t>
+  </si>
+  <si>
+    <t>London</t>
   </si>
 </sst>
 </file>
@@ -495,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -808,7 +811,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>30</v>
@@ -823,7 +826,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>22</v>
@@ -833,15 +836,19 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -852,26 +859,24 @@
       <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -900,20 +905,20 @@
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>34</v>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>22</v>
@@ -928,21 +933,23 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G14" s="3" t="s">
         <v>22</v>
       </c>
@@ -956,10 +963,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>31</v>
@@ -983,6 +990,64 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SearchProperty/testdata/SearchPropertyTest.xlsx
+++ b/SearchProperty/testdata/SearchPropertyTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="40">
   <si>
     <t>SearchLocation</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>London</t>
+  </si>
+  <si>
+    <t>SkipTest</t>
   </si>
 </sst>
 </file>
@@ -498,556 +501,607 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A12" sqref="A12:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
